--- a/natmiOut/OldD0/LR-pairs_lrc2p/Ptn-Ptprz1.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Ptn-Ptprz1.xlsx
@@ -525,52 +525,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.56450039035756</v>
+        <v>3.270036666666666</v>
       </c>
       <c r="H2">
-        <v>2.56450039035756</v>
+        <v>9.81011</v>
       </c>
       <c r="I2">
-        <v>0.3071379055643116</v>
+        <v>0.359406393324744</v>
       </c>
       <c r="J2">
-        <v>0.3071379055643116</v>
+        <v>0.3594063933247441</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.069191100728583</v>
+        <v>0.1030763333333333</v>
       </c>
       <c r="N2">
-        <v>0.069191100728583</v>
+        <v>0.309229</v>
       </c>
       <c r="O2">
-        <v>0.007834199894206072</v>
+        <v>0.01126512502660735</v>
       </c>
       <c r="P2">
-        <v>0.007834199894206072</v>
+        <v>0.01126512502660735</v>
       </c>
       <c r="Q2">
-        <v>0.1774406048277204</v>
+        <v>0.3370633894655555</v>
       </c>
       <c r="R2">
-        <v>0.1774406048277204</v>
+        <v>3.03357050519</v>
       </c>
       <c r="S2">
-        <v>0.002406179747278605</v>
+        <v>0.004048757956165259</v>
       </c>
       <c r="T2">
-        <v>0.002406179747278605</v>
+        <v>0.004048757956165261</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,52 +587,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.56450039035756</v>
+        <v>3.270036666666666</v>
       </c>
       <c r="H3">
-        <v>2.56450039035756</v>
+        <v>9.81011</v>
       </c>
       <c r="I3">
-        <v>0.3071379055643116</v>
+        <v>0.359406393324744</v>
       </c>
       <c r="J3">
-        <v>0.3071379055643116</v>
+        <v>0.3594063933247441</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>8.762738344900519</v>
+        <v>9.046962666666667</v>
       </c>
       <c r="N3">
-        <v>8.762738344900519</v>
+        <v>27.140888</v>
       </c>
       <c r="O3">
-        <v>0.9921658001057939</v>
+        <v>0.9887348749733926</v>
       </c>
       <c r="P3">
-        <v>0.9921658001057939</v>
+        <v>0.9887348749733927</v>
       </c>
       <c r="Q3">
-        <v>22.47204590609854</v>
+        <v>29.58389964196445</v>
       </c>
       <c r="R3">
-        <v>22.47204590609854</v>
+        <v>266.25509677768</v>
       </c>
       <c r="S3">
-        <v>0.304731725817033</v>
+        <v>0.3553576353685787</v>
       </c>
       <c r="T3">
-        <v>0.304731725817033</v>
+        <v>0.3553576353685788</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,52 +649,52 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.78517037283184</v>
+        <v>5.828401</v>
       </c>
       <c r="H4">
-        <v>5.78517037283184</v>
+        <v>17.485203</v>
       </c>
       <c r="I4">
-        <v>0.6928620944356884</v>
+        <v>0.6405936066752559</v>
       </c>
       <c r="J4">
-        <v>0.6928620944356884</v>
+        <v>0.640593606675256</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.069191100728583</v>
+        <v>0.1030763333333333</v>
       </c>
       <c r="N4">
-        <v>0.069191100728583</v>
+        <v>0.309229</v>
       </c>
       <c r="O4">
-        <v>0.007834199894206072</v>
+        <v>0.01126512502660735</v>
       </c>
       <c r="P4">
-        <v>0.007834199894206072</v>
+        <v>0.01126512502660735</v>
       </c>
       <c r="Q4">
-        <v>0.4002823059986219</v>
+        <v>0.6007702042763333</v>
       </c>
       <c r="R4">
-        <v>0.4002823059986219</v>
+        <v>5.406931838487</v>
       </c>
       <c r="S4">
-        <v>0.005428020146927467</v>
+        <v>0.007216367070442092</v>
       </c>
       <c r="T4">
-        <v>0.005428020146927467</v>
+        <v>0.007216367070442094</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,52 +711,52 @@
         <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.78517037283184</v>
+        <v>5.828401</v>
       </c>
       <c r="H5">
-        <v>5.78517037283184</v>
+        <v>17.485203</v>
       </c>
       <c r="I5">
-        <v>0.6928620944356884</v>
+        <v>0.6405936066752559</v>
       </c>
       <c r="J5">
-        <v>0.6928620944356884</v>
+        <v>0.640593606675256</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.762738344900519</v>
+        <v>9.046962666666667</v>
       </c>
       <c r="N5">
-        <v>8.762738344900519</v>
+        <v>27.140888</v>
       </c>
       <c r="O5">
-        <v>0.9921658001057939</v>
+        <v>0.9887348749733926</v>
       </c>
       <c r="P5">
-        <v>0.9921658001057939</v>
+        <v>0.9887348749733927</v>
       </c>
       <c r="Q5">
-        <v>50.69393425779599</v>
+        <v>52.72932625336267</v>
       </c>
       <c r="R5">
-        <v>50.69393425779599</v>
+        <v>474.563936280264</v>
       </c>
       <c r="S5">
-        <v>0.6874340742887609</v>
+        <v>0.6333772396048137</v>
       </c>
       <c r="T5">
-        <v>0.6874340742887609</v>
+        <v>0.633377239604814</v>
       </c>
     </row>
   </sheetData>
